--- a/biology/Botanique/Ipomoea_lacunosa/Ipomoea_lacunosa.xlsx
+++ b/biology/Botanique/Ipomoea_lacunosa/Ipomoea_lacunosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ipomoea lacunosa est une espèce de plantes dicotylédones de la famille des Convolvulaceae, originaire des  États-Unis. C'est l'une des 13 espèces sauvages classées dans la série Batatas (Ipomoea subg. Eriospermum sect. Eriospermum)[2]. Cette espèce diploïde (2n=2x=30) est un parent sauvage de la patate douce (Ipomoea batatas).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ipomoea lacunosa est une espèce de plantes dicotylédones de la famille des Convolvulaceae, originaire des  États-Unis. C'est l'une des 13 espèces sauvages classées dans la série Batatas (Ipomoea subg. Eriospermum sect. Eriospermum). Cette espèce diploïde (2n=2x=30) est un parent sauvage de la patate douce (Ipomoea batatas).
 </t>
         </is>
       </c>
@@ -513,11 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (1 octobre 2019)[1] : 
-Ipomoea lacunosa f. lacunosa
-Liste des variétés
-Selon Tropicos                                           (1 octobre 2019)[3] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (1 octobre 2019) : 
+Ipomoea lacunosa f. lacunosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ipomoea_lacunosa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ipomoea_lacunosa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (1 octobre 2019) :
 Ipomoea lacunosa × cordatotriloba</t>
         </is>
       </c>
